--- a/spring_lab/final_project_2025/twiddle.xlsx
+++ b/spring_lab/final_project_2025/twiddle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SoC\spring_lab\final_project_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61574D77-C670-46BF-8782-1D29D2493C19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E990D-942E-4304-8AC2-855F82CAF966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{9B821B0B-5B27-4A16-AE03-1C7DF91F762C}"/>
   </bookViews>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F549A1-8412-423B-AEC5-FE4E5C7653B1}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/spring_lab/final_project_2025/twiddle.xlsx
+++ b/spring_lab/final_project_2025/twiddle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SoC\spring_lab\final_project_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E990D-942E-4304-8AC2-855F82CAF966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A8D7B-90DF-4AA9-A53C-5B7EE8B5C550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8210" xr2:uid="{9B821B0B-5B27-4A16-AE03-1C7DF91F762C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
   <si>
     <t>W0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,10 @@
   </si>
   <si>
     <t>新順序的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{w7, w6, w5, w4, w3, w2, w1, w0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F549A1-8412-423B-AEC5-FE4E5C7653B1}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -824,13 +828,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1030,6 +1037,9 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
@@ -1044,6 +1054,9 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
@@ -1058,6 +1071,9 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
@@ -1072,6 +1088,9 @@
       <c r="C17" t="s">
         <v>60</v>
       </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
@@ -1086,6 +1105,9 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
@@ -1100,6 +1122,9 @@
       <c r="C19" t="s">
         <v>34</v>
       </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
@@ -1114,6 +1139,9 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
@@ -1128,6 +1156,9 @@
       <c r="C21" t="s">
         <v>50</v>
       </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
@@ -1142,6 +1173,9 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
@@ -1156,6 +1190,9 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
@@ -1170,6 +1207,9 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
@@ -1184,6 +1224,9 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
@@ -1198,6 +1241,9 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
@@ -1212,6 +1258,9 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
@@ -1226,6 +1275,9 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
@@ -1240,6 +1292,9 @@
       <c r="C29" t="s">
         <v>54</v>
       </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
@@ -1254,6 +1309,9 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
@@ -1268,6 +1326,9 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
@@ -1282,6 +1343,9 @@
       <c r="C32" t="s">
         <v>30</v>
       </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
@@ -1296,6 +1360,9 @@
       <c r="C33" t="s">
         <v>62</v>
       </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
@@ -1310,6 +1377,9 @@
       <c r="C34" t="s">
         <v>131</v>
       </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
@@ -1324,6 +1394,9 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
@@ -1338,6 +1411,9 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -1352,6 +1428,9 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
@@ -1366,6 +1445,9 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
@@ -1380,6 +1462,9 @@
       <c r="C39" t="s">
         <v>41</v>
       </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -1394,6 +1479,9 @@
       <c r="C40" t="s">
         <v>25</v>
       </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
@@ -1408,6 +1496,9 @@
       <c r="C41" t="s">
         <v>57</v>
       </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
@@ -1422,6 +1513,9 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
@@ -1436,6 +1530,9 @@
       <c r="C43" t="s">
         <v>37</v>
       </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
@@ -1450,6 +1547,9 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
@@ -1464,6 +1564,9 @@
       <c r="C45" t="s">
         <v>53</v>
       </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
@@ -1478,6 +1581,9 @@
       <c r="C46" t="s">
         <v>13</v>
       </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -1492,6 +1598,9 @@
       <c r="C47" t="s">
         <v>45</v>
       </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
@@ -1506,6 +1615,9 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
@@ -1520,6 +1632,9 @@
       <c r="C49" t="s">
         <v>61</v>
       </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
@@ -1534,6 +1649,9 @@
       <c r="C50" t="s">
         <v>3</v>
       </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -1548,6 +1666,9 @@
       <c r="C51" t="s">
         <v>35</v>
       </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -1562,6 +1683,9 @@
       <c r="C52" t="s">
         <v>19</v>
       </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
@@ -1576,6 +1700,9 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
@@ -1590,6 +1717,9 @@
       <c r="C54" t="s">
         <v>11</v>
       </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
@@ -1604,6 +1734,9 @@
       <c r="C55" t="s">
         <v>43</v>
       </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
@@ -1618,6 +1751,9 @@
       <c r="C56" t="s">
         <v>27</v>
       </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
@@ -1632,6 +1768,9 @@
       <c r="C57" t="s">
         <v>59</v>
       </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
@@ -1646,6 +1785,9 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
@@ -1660,6 +1802,9 @@
       <c r="C59" t="s">
         <v>39</v>
       </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
@@ -1674,6 +1819,9 @@
       <c r="C60" t="s">
         <v>23</v>
       </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -1688,6 +1836,9 @@
       <c r="C61" t="s">
         <v>55</v>
       </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
@@ -1702,6 +1853,9 @@
       <c r="C62" t="s">
         <v>15</v>
       </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -1716,6 +1870,9 @@
       <c r="C63" t="s">
         <v>47</v>
       </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
@@ -1730,6 +1887,9 @@
       <c r="C64" t="s">
         <v>31</v>
       </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
@@ -1754,5 +1914,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>